--- a/TopicsVisualization/101相关用户微博id_3(带名字版）.xlsx
+++ b/TopicsVisualization/101相关用户微博id_3(带名字版）.xlsx
@@ -251,15 +251,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -273,21 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,29 +288,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,47 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,7 +350,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,6 +404,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,13 +425,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,31 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,25 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,13 +563,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,79 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,12 +619,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -639,6 +659,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -655,8 +690,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -667,36 +704,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,149 +724,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,6 +880,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,7 +1207,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E22" sqref="E14 E15 E16 E17 E18 E19 E20 E21 E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1231,7 +1241,7 @@
       <c r="D1" s="4">
         <v>2617143030</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="5">
         <v>6201247478</v>
       </c>
       <c r="F1" s="4">
@@ -1251,7 +1261,7 @@
       <c r="D2" s="4">
         <v>3670570930</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>1674561030</v>
       </c>
       <c r="F2" s="4">
@@ -1271,7 +1281,7 @@
       <c r="D3" s="4">
         <v>5866685410</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>5887213624</v>
       </c>
       <c r="F3" s="4">
@@ -1291,7 +1301,7 @@
       <c r="D4" s="4">
         <v>6540414301</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>5951606667</v>
       </c>
       <c r="F4" s="4">
@@ -1311,7 +1321,7 @@
       <c r="D5" s="4">
         <v>5373966624</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>6533408548</v>
       </c>
       <c r="F5" s="4">
@@ -1331,7 +1341,7 @@
       <c r="D6" s="4">
         <v>6514492322</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>3030398737</v>
       </c>
       <c r="F6" s="4">
@@ -1367,7 +1377,7 @@
       <c r="D8" s="4">
         <v>5596094365</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>2660385853</v>
       </c>
       <c r="F8" s="4">
@@ -1387,7 +1397,7 @@
       <c r="D9" s="4">
         <v>5572995980</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>3126342443</v>
       </c>
       <c r="F9" s="4"/>
@@ -1405,7 +1415,7 @@
       <c r="D10" s="4">
         <v>6320649994</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>2959869817</v>
       </c>
       <c r="F10" s="4">
@@ -1425,7 +1435,7 @@
       <c r="D11" s="4">
         <v>5230206777</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>5392529186</v>
       </c>
       <c r="F11" s="4">
@@ -1445,7 +1455,7 @@
       <c r="D12" s="4">
         <v>6512765246</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>2003722997</v>
       </c>
       <c r="F12" s="4"/>
@@ -1463,7 +1473,7 @@
       <c r="D13" s="4">
         <v>5664160575</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>6391488795</v>
       </c>
       <c r="F13" s="4"/>

--- a/TopicsVisualization/101相关用户微博id_3(带名字版）.xlsx
+++ b/TopicsVisualization/101相关用户微博id_3(带名字版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9540"/>
+    <workbookView windowWidth="22943" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人" sheetId="1" r:id="rId1"/>
@@ -269,13 +269,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,9 +333,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,14 +395,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,13 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +455,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,19 +539,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,115 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,21 +639,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,6 +693,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -724,10 +724,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,137 +736,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,10 +876,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1206,8 +1212,8 @@
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E14 E15 E16 E17 E18 E19 E20 E21 E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1229,432 +1235,432 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="5">
         <v>5796662600</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="5">
         <v>2617143030</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="6">
         <v>6201247478</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="7">
         <v>6345246509</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>1773294041</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>3670570930</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>1674561030</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>6538141149</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>5813256522</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>5866685410</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>5887213624</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>6526138237</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>5644764907</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>6540414301</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>5951606667</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>6537877325</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>5542384916</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>5373966624</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>6533408548</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>5990852014</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>6502204514</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>6514492322</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>3030398737</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>311549995</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>5957839152</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>5350504603</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>5541182601</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>5596094365</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>2660385853</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="7">
         <v>1244585363</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>2139335344</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>5572995980</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>3126342443</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>2335410541</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>6320649994</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>2959869817</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="7">
         <v>6429942032</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>5778636698</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>5230206777</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>5392529186</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
         <v>6532156133</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>2218081121</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>6512765246</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>2003722997</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>5473085545</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>5664160575</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>6391488795</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>1369706300</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>5636854141</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="7">
         <v>5606115486</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="7">
         <v>5821595697</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>6523559032</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>6032617022</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="7">
         <v>5641357096</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="7">
         <v>5523152820</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>5347125317</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>6515916502</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="7">
         <v>6509332495</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>1978841494</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>6075970282</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="7">
         <v>2062307363</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="7">
         <v>1775707341</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>1750510191</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>6523692008</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="7">
         <v>5912552251</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="7">
         <v>2511614714</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>3885562111</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="7">
         <v>6187587658</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="7">
         <v>6466036310</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>1805606247</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>3829248026</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="7">
         <v>5523649050</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="7">
         <v>6559948171</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>1791873284</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>3745023125</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="7">
         <v>6555021531</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>5873220619</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>6019320586</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="7">
         <v>6355136712</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="7">
         <v>6509755889</v>
       </c>
     </row>
@@ -1732,8 +1738,8 @@
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1745,10 +1751,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1">
+      <c r="A1" s="3">
         <v>6183820853</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <v>1642591402</v>
       </c>
       <c r="C1" s="1">
@@ -1759,10 +1765,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>2439335354</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>1792951112</v>
       </c>
       <c r="C2" s="1">
@@ -1773,10 +1779,10 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>6421853571</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>3925184557</v>
       </c>
       <c r="C3" s="1">
@@ -1787,10 +1793,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>1179539593</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>1272741311</v>
       </c>
       <c r="C4" s="1">
@@ -1801,10 +1807,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>6438670731</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>1678808364</v>
       </c>
       <c r="C5" s="1">
@@ -1815,10 +1821,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5410156893</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>2615417307</v>
       </c>
       <c r="C6" s="1">
@@ -1829,10 +1835,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>5577159364</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>1567862431</v>
       </c>
       <c r="C7" s="1">
@@ -1843,10 +1849,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>6011123850</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>3212093237</v>
       </c>
       <c r="C8" s="1">
@@ -1857,7 +1863,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>2653906910</v>
       </c>
       <c r="B9" s="1">

--- a/TopicsVisualization/101相关用户微博id_3(带名字版）.xlsx
+++ b/TopicsVisualization/101相关用户微博id_3(带名字版）.xlsx
@@ -251,10 +251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -269,6 +269,13 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,8 +340,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,28 +403,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,13 +425,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,13 +461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,121 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +503,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,6 +645,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,21 +714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -724,149 +730,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,13 +885,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1213,7 +1222,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1235,432 +1244,432 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4">
+      <c r="A1" s="6">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="7">
         <v>5796662600</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="7">
         <v>2617143030</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="8">
         <v>6201247478</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="8">
         <v>6345246509</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>1773294041</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>3670570930</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>1674561030</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>6538141149</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>5813256522</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>5866685410</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>5887213624</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>6526138237</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>5644764907</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>6540414301</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>5951606667</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>6537877325</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>5542384916</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>5373966624</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>6533408548</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>5990852014</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>6502204514</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>6514492322</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>3030398737</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>311549995</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>5957839152</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>5350504603</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>5541182601</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>5596094365</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>2660385853</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>1244585363</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>2139335344</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <v>5572995980</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>3126342443</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>2335410541</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <v>6320649994</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>2959869817</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>6429942032</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>5778636698</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>5230206777</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>5392529186</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>6532156133</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>2218081121</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="7">
         <v>6512765246</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="8">
         <v>2003722997</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4">
+      <c r="A13" s="6">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>5473085545</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="7">
         <v>5664160575</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="8">
         <v>6391488795</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>1369706300</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>5636854141</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>5606115486</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>5821595697</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>6523559032</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="7">
         <v>6032617022</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>5641357096</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>5523152820</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4">
+      <c r="A16" s="6">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>5347125317</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
         <v>6515916502</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>6509332495</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4">
+      <c r="A17" s="6">
         <v>17</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>1978841494</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="7">
         <v>6075970282</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>2062307363</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>1775707341</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>18</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>1750510191</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="7">
         <v>6523692008</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>5912552251</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>2511614714</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4">
+      <c r="A19" s="6">
         <v>19</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="7">
         <v>3885562111</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>6187587658</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>6466036310</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4">
+      <c r="A20" s="6">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>1805606247</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="7">
         <v>3829248026</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <v>5523649050</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>6559948171</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4">
+      <c r="A21" s="6">
         <v>21</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>1791873284</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="7">
         <v>3745023125</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>6555021531</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="4">
+      <c r="A22" s="6">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
         <v>5873220619</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="7">
         <v>6019320586</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="8">
         <v>6355136712</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="8">
         <v>6509755889</v>
       </c>
     </row>
@@ -1739,7 +1748,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1757,7 +1766,7 @@
       <c r="B1" s="3">
         <v>1642591402</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="4">
         <v>5101366190</v>
       </c>
       <c r="D1" s="1">
@@ -1771,7 +1780,7 @@
       <c r="B2" s="3">
         <v>1792951112</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>1728885872</v>
       </c>
       <c r="D2" s="1">
@@ -1785,7 +1794,7 @@
       <c r="B3" s="3">
         <v>3925184557</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>3938976579</v>
       </c>
       <c r="D3" s="1">
@@ -1799,7 +1808,7 @@
       <c r="B4" s="3">
         <v>1272741311</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>2653906910</v>
       </c>
       <c r="D4" s="1">
@@ -1813,7 +1822,7 @@
       <c r="B5" s="3">
         <v>1678808364</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>1855816273</v>
       </c>
       <c r="D5" s="1">
@@ -1827,7 +1836,7 @@
       <c r="B6" s="3">
         <v>2615417307</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>6065813013</v>
       </c>
       <c r="D6" s="1">
@@ -1841,7 +1850,7 @@
       <c r="B7" s="3">
         <v>1567862431</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>1800541627</v>
       </c>
       <c r="D7" s="1">
@@ -1855,7 +1864,7 @@
       <c r="B8" s="3">
         <v>3212093237</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>1609875432</v>
       </c>
       <c r="D8" s="1">
@@ -1866,10 +1875,10 @@
       <c r="A9" s="3">
         <v>2653906910</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>2057769762</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>5611532670</v>
       </c>
       <c r="D9" s="1">
@@ -1877,13 +1886,13 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>5255814135</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>3228634923</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>5209478895</v>
       </c>
       <c r="D10" s="1">
@@ -1891,13 +1900,13 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>5709559214</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>1350310131</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>3217179555</v>
       </c>
       <c r="D11" s="1">
@@ -1905,13 +1914,13 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>5255814135</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>1246130430</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>2891529877</v>
       </c>
       <c r="D12" s="1">
@@ -1919,13 +1928,13 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>5477320351</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>1774451041</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <v>2150511032</v>
       </c>
       <c r="D13" s="1">
@@ -1933,21 +1942,21 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>1825457341</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>6052499345</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>2259906485</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>2806170583</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>5235757571</v>
       </c>
       <c r="C15" s="1">
@@ -1955,10 +1964,10 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>2713968254</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>5865978055</v>
       </c>
       <c r="C16" s="1">
@@ -1966,10 +1975,10 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>5669038139</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>6067784621</v>
       </c>
       <c r="C17" s="1">
@@ -1977,10 +1986,10 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>5492443184</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>1241148864</v>
       </c>
       <c r="C18" s="1">
@@ -1988,10 +1997,10 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>5191142311</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>1751309223</v>
       </c>
       <c r="C19" s="1">
@@ -1999,10 +2008,10 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>5888120096</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>1784537661</v>
       </c>
       <c r="C20" s="1">
@@ -2020,7 +2029,7 @@
   <sheetPr/>
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
